--- a/VT1/0. variaciones DEFUNCIONES FETALES.xlsx
+++ b/VT1/0. variaciones DEFUNCIONES FETALES.xlsx
@@ -109,12 +109,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="mmm/yyyy"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="#,##0.0"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -206,7 +205,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,13 +232,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFBFBFB"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDFDFD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,19 +260,19 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </top>
-      <bottom/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1" tint="0.34998626667073579"/>
-      </bottom>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -275,7 +280,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -319,101 +324,116 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="4"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="6"/>
+    </xf>
+    <xf numFmtId="17" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="6"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="3"/>
+    </xf>
     <xf numFmtId="167" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="4"/>
     </xf>
     <xf numFmtId="167" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="6"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="4"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="6"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="3"/>
+    </xf>
     <xf numFmtId="167" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="4"/>
     </xf>
     <xf numFmtId="167" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="3"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="4"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="3"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="4"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="6"/>
     </xf>
-    <xf numFmtId="17" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="12" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="12" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="3"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="4"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -424,6 +444,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFDFDFD"/>
       <color rgb="FFB9EDFF"/>
     </mruColors>
   </colors>
@@ -33128,525 +33149,600 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="27"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="26" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="26" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" style="26" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" style="26" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="26"/>
+    <col min="1" max="1" width="7.5703125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="0.7109375" style="35" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="25" customWidth="1"/>
+    <col min="5" max="5" width="0.7109375" style="35" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="0.7109375" style="35" customWidth="1"/>
+    <col min="8" max="8" width="24" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="84.75" customHeight="1">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:8" ht="84.75" customHeight="1">
+      <c r="A1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="E1" s="38"/>
+      <c r="F1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="G1" s="38"/>
+      <c r="H1" s="38" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="61" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="50">
         <f>+Selección!H5</f>
         <v>41334</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="51"/>
+      <c r="D2" s="52">
         <f>+VLOOKUP(B2,'Datos mensuales'!$E$2:$F$1048576,2,0)</f>
         <v>272</v>
       </c>
-      <c r="D2" s="29">
+      <c r="E2" s="51"/>
+      <c r="F2" s="53">
         <f>+VLOOKUP(B2,'Datos mensuales'!$E$2:$G$1048576,3,0)</f>
         <v>12.863070539419086</v>
       </c>
-      <c r="E2" s="30">
+      <c r="G2" s="51"/>
+      <c r="H2" s="54">
         <f>+VLOOKUP(B2,'Datos mensuales'!$E$2:$H$1048576,4,0)</f>
         <v>6.25</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="62"/>
-      <c r="B3" s="31">
+    <row r="3" spans="1:8">
+      <c r="A3" s="36"/>
+      <c r="B3" s="26">
         <f>+Selección!H6</f>
         <v>41365</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="33"/>
+      <c r="D3" s="34">
         <f>+VLOOKUP(B3,'Datos mensuales'!$E$2:$F$1048576,2,0)</f>
         <v>274</v>
       </c>
-      <c r="D3" s="33">
+      <c r="E3" s="33"/>
+      <c r="F3" s="27">
         <f>+VLOOKUP(B3,'Datos mensuales'!$E$2:$G$1048576,3,0)</f>
         <v>0.73529411764705621</v>
       </c>
-      <c r="E3" s="34">
+      <c r="G3" s="33"/>
+      <c r="H3" s="28">
         <f>+VLOOKUP(B3,'Datos mensuales'!$E$2:$H$1048576,4,0)</f>
         <v>3.3962264150943389</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="62"/>
-      <c r="B4" s="31">
+    <row r="4" spans="1:8">
+      <c r="A4" s="36"/>
+      <c r="B4" s="26">
         <f>+Selección!H7</f>
         <v>41395</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="33"/>
+      <c r="D4" s="34">
         <f>+VLOOKUP(B4,'Datos mensuales'!$E$2:$F$1048576,2,0)</f>
         <v>298</v>
       </c>
-      <c r="D4" s="33">
+      <c r="E4" s="33"/>
+      <c r="F4" s="27">
         <f>+VLOOKUP(B4,'Datos mensuales'!$E$2:$G$1048576,3,0)</f>
         <v>8.7591240875912302</v>
       </c>
-      <c r="E4" s="34">
+      <c r="G4" s="33"/>
+      <c r="H4" s="28">
         <f>+VLOOKUP(B4,'Datos mensuales'!$E$2:$H$1048576,4,0)</f>
         <v>29.565217391304355</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="62"/>
-      <c r="B5" s="31">
+    <row r="5" spans="1:8">
+      <c r="A5" s="36"/>
+      <c r="B5" s="26">
         <f>+Selección!H8</f>
         <v>41426</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="33"/>
+      <c r="D5" s="34">
         <f>+VLOOKUP(B5,'Datos mensuales'!$E$2:$F$1048576,2,0)</f>
         <v>254</v>
       </c>
-      <c r="D5" s="33">
+      <c r="E5" s="33"/>
+      <c r="F5" s="27">
         <f>+VLOOKUP(B5,'Datos mensuales'!$E$2:$G$1048576,3,0)</f>
         <v>-14.76510067114094</v>
       </c>
-      <c r="E5" s="34">
+      <c r="G5" s="33"/>
+      <c r="H5" s="28">
         <f>+VLOOKUP(B5,'Datos mensuales'!$E$2:$H$1048576,4,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="62"/>
-      <c r="B6" s="31">
+    <row r="6" spans="1:8">
+      <c r="A6" s="36"/>
+      <c r="B6" s="26">
         <f>+Selección!H9</f>
         <v>41456</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="33"/>
+      <c r="D6" s="34">
         <f>+VLOOKUP(B6,'Datos mensuales'!$E$2:$F$1048576,2,0)</f>
         <v>296</v>
       </c>
-      <c r="D6" s="33">
+      <c r="E6" s="33"/>
+      <c r="F6" s="27">
         <f>+VLOOKUP(B6,'Datos mensuales'!$E$2:$G$1048576,3,0)</f>
         <v>16.535433070866134</v>
       </c>
-      <c r="E6" s="34">
+      <c r="G6" s="33"/>
+      <c r="H6" s="28">
         <f>+VLOOKUP(B6,'Datos mensuales'!$E$2:$H$1048576,4,0)</f>
         <v>7.2463768115942129</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="62"/>
-      <c r="B7" s="31">
+    <row r="7" spans="1:8">
+      <c r="A7" s="36"/>
+      <c r="B7" s="26">
         <f>+Selección!H10</f>
         <v>41487</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="33"/>
+      <c r="D7" s="34">
         <f>+VLOOKUP(B7,'Datos mensuales'!$E$2:$F$1048576,2,0)</f>
         <v>279</v>
       </c>
-      <c r="D7" s="33">
+      <c r="E7" s="33"/>
+      <c r="F7" s="27">
         <f>+VLOOKUP(B7,'Datos mensuales'!$E$2:$G$1048576,3,0)</f>
         <v>-5.7432432432432456</v>
       </c>
-      <c r="E7" s="34">
+      <c r="G7" s="33"/>
+      <c r="H7" s="28">
         <f>+VLOOKUP(B7,'Datos mensuales'!$E$2:$H$1048576,4,0)</f>
         <v>-3.125</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="62"/>
-      <c r="B8" s="31">
+    <row r="8" spans="1:8">
+      <c r="A8" s="36"/>
+      <c r="B8" s="26">
         <f>+Selección!H11</f>
         <v>41518</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="33"/>
+      <c r="D8" s="34">
         <f>+VLOOKUP(B8,'Datos mensuales'!$E$2:$F$1048576,2,0)</f>
         <v>308</v>
       </c>
-      <c r="D8" s="33">
+      <c r="E8" s="33"/>
+      <c r="F8" s="27">
         <f>+VLOOKUP(B8,'Datos mensuales'!$E$2:$G$1048576,3,0)</f>
         <v>10.394265232974909</v>
       </c>
-      <c r="E8" s="34">
+      <c r="G8" s="33"/>
+      <c r="H8" s="28">
         <f>+VLOOKUP(B8,'Datos mensuales'!$E$2:$H$1048576,4,0)</f>
         <v>25.203252032520318</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="62"/>
-      <c r="B9" s="31">
+    <row r="9" spans="1:8">
+      <c r="A9" s="36"/>
+      <c r="B9" s="26">
         <f>+Selección!H12</f>
         <v>41548</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="33"/>
+      <c r="D9" s="34">
         <f>+VLOOKUP(B9,'Datos mensuales'!$E$2:$F$1048576,2,0)</f>
         <v>257</v>
       </c>
-      <c r="D9" s="33">
+      <c r="E9" s="33"/>
+      <c r="F9" s="27">
         <f>+VLOOKUP(B9,'Datos mensuales'!$E$2:$G$1048576,3,0)</f>
         <v>-16.558441558441562</v>
       </c>
-      <c r="E9" s="34">
+      <c r="G9" s="33"/>
+      <c r="H9" s="28">
         <f>+VLOOKUP(B9,'Datos mensuales'!$E$2:$H$1048576,4,0)</f>
         <v>-0.77220077220077066</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="62"/>
-      <c r="B10" s="31">
+    <row r="10" spans="1:8">
+      <c r="A10" s="36"/>
+      <c r="B10" s="26">
         <f>+Selección!H13</f>
         <v>41579</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="33"/>
+      <c r="D10" s="34">
         <f>+VLOOKUP(B10,'Datos mensuales'!$E$2:$F$1048576,2,0)</f>
         <v>275</v>
       </c>
-      <c r="D10" s="33">
+      <c r="E10" s="33"/>
+      <c r="F10" s="27">
         <f>+VLOOKUP(B10,'Datos mensuales'!$E$2:$G$1048576,3,0)</f>
         <v>7.0038910505836549</v>
       </c>
-      <c r="E10" s="34">
+      <c r="G10" s="33"/>
+      <c r="H10" s="28">
         <f>+VLOOKUP(B10,'Datos mensuales'!$E$2:$H$1048576,4,0)</f>
         <v>-1.4336917562724039</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="62"/>
-      <c r="B11" s="31">
+    <row r="11" spans="1:8">
+      <c r="A11" s="36"/>
+      <c r="B11" s="26">
         <f>+Selección!H14</f>
         <v>41609</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="33"/>
+      <c r="D11" s="34">
         <f>+VLOOKUP(B11,'Datos mensuales'!$E$2:$F$1048576,2,0)</f>
         <v>301</v>
       </c>
-      <c r="D11" s="33">
+      <c r="E11" s="33"/>
+      <c r="F11" s="27">
         <f>+VLOOKUP(B11,'Datos mensuales'!$E$2:$G$1048576,3,0)</f>
         <v>9.4545454545454497</v>
       </c>
-      <c r="E11" s="34">
+      <c r="G11" s="33"/>
+      <c r="H11" s="28">
         <f>+VLOOKUP(B11,'Datos mensuales'!$E$2:$H$1048576,4,0)</f>
         <v>13.157894736842103</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="62"/>
-      <c r="B12" s="31">
+    <row r="12" spans="1:8">
+      <c r="A12" s="36"/>
+      <c r="B12" s="26">
         <f>+Selección!H15</f>
         <v>41640</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="33"/>
+      <c r="D12" s="34">
         <f>+VLOOKUP(B12,'Datos mensuales'!$E$2:$F$1048576,2,0)</f>
         <v>284</v>
       </c>
-      <c r="D12" s="33">
+      <c r="E12" s="33"/>
+      <c r="F12" s="27">
         <f>+VLOOKUP(B12,'Datos mensuales'!$E$2:$G$1048576,3,0)</f>
         <v>-5.6478405315614655</v>
       </c>
-      <c r="E12" s="34">
+      <c r="G12" s="33"/>
+      <c r="H12" s="28">
         <f>+VLOOKUP(B12,'Datos mensuales'!$E$2:$H$1048576,4,0)</f>
         <v>-1.730103806228378</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="62"/>
-      <c r="B13" s="31">
+    <row r="13" spans="1:8">
+      <c r="A13" s="36"/>
+      <c r="B13" s="26">
         <f>+Selección!H16</f>
         <v>41671</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="33"/>
+      <c r="D13" s="34">
         <f>+VLOOKUP(B13,'Datos mensuales'!$E$2:$F$1048576,2,0)</f>
         <v>232</v>
       </c>
-      <c r="D13" s="33">
+      <c r="E13" s="33"/>
+      <c r="F13" s="27">
         <f>+VLOOKUP(B13,'Datos mensuales'!$E$2:$G$1048576,3,0)</f>
         <v>-18.309859154929576</v>
       </c>
-      <c r="E13" s="34">
+      <c r="G13" s="33"/>
+      <c r="H13" s="28">
         <f>+VLOOKUP(B13,'Datos mensuales'!$E$2:$H$1048576,4,0)</f>
         <v>-3.7344398340248941</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="63"/>
-      <c r="B14" s="35">
+    <row r="14" spans="1:8">
+      <c r="A14" s="39"/>
+      <c r="B14" s="40">
         <f>+Selección!H17</f>
         <v>41699</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="41"/>
+      <c r="D14" s="42">
         <f>+VLOOKUP(B14,'Datos mensuales'!$E$2:$F$1048576,2,0)</f>
         <v>275</v>
       </c>
-      <c r="D14" s="37">
+      <c r="E14" s="41"/>
+      <c r="F14" s="43">
         <f>+VLOOKUP(B14,'Datos mensuales'!$E$2:$G$1048576,3,0)</f>
         <v>18.534482758620683</v>
       </c>
-      <c r="E14" s="38">
+      <c r="G14" s="41"/>
+      <c r="H14" s="44">
         <f>+VLOOKUP(B14,'Datos mensuales'!$E$2:$H$1048576,4,0)</f>
         <v>1.1029411764705843</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="64" t="s">
+    <row r="15" spans="1:8">
+      <c r="A15" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="39" t="str">
+      <c r="B15" s="56" t="str">
         <f>+Selección!H19</f>
         <v>1-2012</v>
       </c>
-      <c r="C15" s="40">
+      <c r="C15" s="56"/>
+      <c r="D15" s="57">
         <f>+VLOOKUP(B15,'Datos trimestrales'!$C$2:$D$1048576,2,0)</f>
         <v>794</v>
       </c>
-      <c r="D15" s="41">
+      <c r="E15" s="56"/>
+      <c r="F15" s="58">
         <f>+VLOOKUP(B15,'Datos trimestrales'!$C$2:$E$1048576,3,0)</f>
         <v>-1.1207970112079746</v>
       </c>
-      <c r="E15" s="42">
+      <c r="G15" s="56"/>
+      <c r="H15" s="59">
         <f>+VLOOKUP(B15,'Datos trimestrales'!$C$2:$F$1048576,4,0)</f>
         <v>-6.5882352941176503</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="65"/>
-      <c r="B16" s="43" t="str">
+    <row r="16" spans="1:8">
+      <c r="A16" s="60"/>
+      <c r="B16" s="61" t="str">
         <f>+Selección!H20</f>
         <v>2-2012</v>
       </c>
-      <c r="C16" s="44">
+      <c r="C16" s="61"/>
+      <c r="D16" s="62">
         <f>+VLOOKUP(B16,'Datos trimestrales'!$C$2:$D$1048576,2,0)</f>
         <v>749</v>
       </c>
-      <c r="D16" s="45">
+      <c r="E16" s="61"/>
+      <c r="F16" s="63">
         <f>+VLOOKUP(B16,'Datos trimestrales'!$C$2:$E$1048576,3,0)</f>
         <v>-5.6675062972292185</v>
       </c>
-      <c r="E16" s="46">
+      <c r="G16" s="61"/>
+      <c r="H16" s="64">
         <f>+VLOOKUP(B16,'Datos trimestrales'!$C$2:$F$1048576,4,0)</f>
         <v>-8.0981595092024516</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="65"/>
-      <c r="B17" s="43" t="str">
+    <row r="17" spans="1:9">
+      <c r="A17" s="60"/>
+      <c r="B17" s="61" t="str">
         <f>+Selección!H21</f>
         <v>3-2012</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="61"/>
+      <c r="D17" s="62">
         <f>+VLOOKUP(B17,'Datos trimestrales'!$C$2:$D$1048576,2,0)</f>
         <v>810</v>
       </c>
-      <c r="D17" s="45">
+      <c r="E17" s="61"/>
+      <c r="F17" s="63">
         <f>+VLOOKUP(B17,'Datos trimestrales'!$C$2:$E$1048576,3,0)</f>
         <v>8.1441922563417979</v>
       </c>
-      <c r="E17" s="46">
+      <c r="G17" s="61"/>
+      <c r="H17" s="64">
         <f>+VLOOKUP(B17,'Datos trimestrales'!$C$2:$F$1048576,4,0)</f>
         <v>1.5037593984962516</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="65"/>
-      <c r="B18" s="43" t="str">
+    <row r="18" spans="1:9">
+      <c r="A18" s="60"/>
+      <c r="B18" s="61" t="str">
         <f>+Selección!H22</f>
         <v>4-2012</v>
       </c>
-      <c r="C18" s="44">
+      <c r="C18" s="61"/>
+      <c r="D18" s="62">
         <f>+VLOOKUP(B18,'Datos trimestrales'!$C$2:$D$1048576,2,0)</f>
         <v>804</v>
       </c>
-      <c r="D18" s="45">
+      <c r="E18" s="61"/>
+      <c r="F18" s="63">
         <f>+VLOOKUP(B18,'Datos trimestrales'!$C$2:$E$1048576,3,0)</f>
         <v>-0.74074074074074181</v>
       </c>
-      <c r="E18" s="46">
+      <c r="G18" s="61"/>
+      <c r="H18" s="64">
         <f>+VLOOKUP(B18,'Datos trimestrales'!$C$2:$F$1048576,4,0)</f>
         <v>0.12453300124533051</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="65"/>
-      <c r="B19" s="43" t="str">
+    <row r="19" spans="1:9">
+      <c r="A19" s="60"/>
+      <c r="B19" s="61" t="str">
         <f>+Selección!H23</f>
         <v>1-2013</v>
       </c>
-      <c r="C19" s="44">
+      <c r="C19" s="61"/>
+      <c r="D19" s="62">
         <f>+VLOOKUP(B19,'Datos trimestrales'!$C$2:$D$1048576,2,0)</f>
         <v>802</v>
       </c>
-      <c r="D19" s="45">
+      <c r="E19" s="61"/>
+      <c r="F19" s="63">
         <f>+VLOOKUP(B19,'Datos trimestrales'!$C$2:$E$1048576,3,0)</f>
         <v>-0.24875621890547706</v>
       </c>
-      <c r="E19" s="46">
+      <c r="G19" s="61"/>
+      <c r="H19" s="64">
         <f>+VLOOKUP(B19,'Datos trimestrales'!$C$2:$F$1048576,4,0)</f>
         <v>1.0075566750629816</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="65"/>
-      <c r="B20" s="43" t="str">
+    <row r="20" spans="1:9">
+      <c r="A20" s="60"/>
+      <c r="B20" s="61" t="str">
         <f>+Selección!H24</f>
         <v>2-2013</v>
       </c>
-      <c r="C20" s="44">
+      <c r="C20" s="61"/>
+      <c r="D20" s="62">
         <f>+VLOOKUP(B20,'Datos trimestrales'!$C$2:$D$1048576,2,0)</f>
         <v>826</v>
       </c>
-      <c r="D20" s="45">
+      <c r="E20" s="61"/>
+      <c r="F20" s="63">
         <f>+VLOOKUP(B20,'Datos trimestrales'!$C$2:$E$1048576,3,0)</f>
         <v>2.9925187032418865</v>
       </c>
-      <c r="E20" s="46">
+      <c r="G20" s="61"/>
+      <c r="H20" s="64">
         <f>+VLOOKUP(B20,'Datos trimestrales'!$C$2:$F$1048576,4,0)</f>
         <v>10.280373831775691</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="65"/>
-      <c r="B21" s="43" t="str">
+    <row r="21" spans="1:9">
+      <c r="A21" s="60"/>
+      <c r="B21" s="61" t="str">
         <f>+Selección!H25</f>
         <v>3-2013</v>
       </c>
-      <c r="C21" s="44">
+      <c r="C21" s="61"/>
+      <c r="D21" s="62">
         <f>+VLOOKUP(B21,'Datos trimestrales'!$C$2:$D$1048576,2,0)</f>
         <v>883</v>
       </c>
-      <c r="D21" s="45">
+      <c r="E21" s="61"/>
+      <c r="F21" s="63">
         <f>+VLOOKUP(B21,'Datos trimestrales'!$C$2:$E$1048576,3,0)</f>
         <v>6.9007263922518103</v>
       </c>
-      <c r="E21" s="46">
+      <c r="G21" s="61"/>
+      <c r="H21" s="64">
         <f>+VLOOKUP(B21,'Datos trimestrales'!$C$2:$F$1048576,4,0)</f>
         <v>9.0123456790123448</v>
       </c>
-      <c r="F21" s="47"/>
+      <c r="I21" s="29"/>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="65"/>
-      <c r="B22" s="43" t="str">
+    <row r="22" spans="1:9">
+      <c r="A22" s="60"/>
+      <c r="B22" s="61" t="str">
         <f>+Selección!H26</f>
         <v>4-2013</v>
       </c>
-      <c r="C22" s="44">
+      <c r="C22" s="61"/>
+      <c r="D22" s="62">
         <f>+VLOOKUP(B22,'Datos trimestrales'!$C$2:$D$1048576,2,0)</f>
         <v>833</v>
       </c>
-      <c r="D22" s="45">
+      <c r="E22" s="61"/>
+      <c r="F22" s="63">
         <f>+VLOOKUP(B22,'Datos trimestrales'!$C$2:$E$1048576,3,0)</f>
         <v>-5.6625141562853916</v>
       </c>
-      <c r="E22" s="46">
+      <c r="G22" s="61"/>
+      <c r="H22" s="64">
         <f>+VLOOKUP(B22,'Datos trimestrales'!$C$2:$F$1048576,4,0)</f>
         <v>3.6069651741293507</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="66"/>
-      <c r="B23" s="48" t="str">
+    <row r="23" spans="1:9">
+      <c r="A23" s="65"/>
+      <c r="B23" s="66" t="str">
         <f>+Selección!H27</f>
         <v>1-2014</v>
       </c>
-      <c r="C23" s="49">
+      <c r="C23" s="66"/>
+      <c r="D23" s="67">
         <f>+VLOOKUP(B23,'Datos trimestrales'!$C$2:$D$1048576,2,0)</f>
         <v>791</v>
       </c>
-      <c r="D23" s="50">
+      <c r="E23" s="66"/>
+      <c r="F23" s="68">
         <f>+VLOOKUP(B23,'Datos trimestrales'!$C$2:$E$1048576,3,0)</f>
         <v>-5.0420168067226934</v>
       </c>
-      <c r="E23" s="51">
+      <c r="G23" s="66"/>
+      <c r="H23" s="69">
         <f>+VLOOKUP(B23,'Datos trimestrales'!$C$2:$F$1048576,4,0)</f>
         <v>-1.3715710723191998</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="62" t="s">
+    <row r="24" spans="1:9">
+      <c r="A24" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="52">
+      <c r="B24" s="30">
         <f>+Selección!D29</f>
         <v>2010</v>
       </c>
-      <c r="C24" s="53">
+      <c r="D24" s="34">
         <f>+VLOOKUP('Cuadro final'!B24,'Datos anuales'!$A$2:$B$1048576,2,0)</f>
         <v>3377</v>
       </c>
-      <c r="D24" s="54">
+      <c r="F24" s="31">
         <f>+VLOOKUP('Cuadro final'!B24,'Datos anuales'!$A$2:$C$1048576,3,0)</f>
         <v>4.4540674296319249</v>
       </c>
-      <c r="E24" s="55"/>
+      <c r="H24" s="32"/>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="62"/>
-      <c r="B25" s="52">
+    <row r="25" spans="1:9">
+      <c r="A25" s="36"/>
+      <c r="B25" s="30">
         <f>+Selección!D30</f>
         <v>2011</v>
       </c>
-      <c r="C25" s="53">
+      <c r="D25" s="34">
         <f>+VLOOKUP('Cuadro final'!B25,'Datos anuales'!$A$2:$B$1048576,2,0)</f>
         <v>3266</v>
       </c>
-      <c r="D25" s="54">
+      <c r="F25" s="31">
         <f>+VLOOKUP('Cuadro final'!B25,'Datos anuales'!$A$2:$C$1048576,3,0)</f>
         <v>-3.2869410719573611</v>
       </c>
-      <c r="E25" s="55"/>
+      <c r="H25" s="32"/>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="62"/>
-      <c r="B26" s="52">
+    <row r="26" spans="1:9">
+      <c r="A26" s="36"/>
+      <c r="B26" s="30">
         <f>+Selección!D31</f>
         <v>2012</v>
       </c>
-      <c r="C26" s="53">
+      <c r="D26" s="34">
         <f>+VLOOKUP('Cuadro final'!B26,'Datos anuales'!$A$2:$B$1048576,2,0)</f>
         <v>3157</v>
       </c>
-      <c r="D26" s="54">
+      <c r="F26" s="31">
         <f>+VLOOKUP('Cuadro final'!B26,'Datos anuales'!$A$2:$C$1048576,3,0)</f>
         <v>-3.3374157991426845</v>
       </c>
-      <c r="E26" s="55"/>
+      <c r="H26" s="32"/>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="63"/>
-      <c r="B27" s="56">
+    <row r="27" spans="1:9">
+      <c r="A27" s="39"/>
+      <c r="B27" s="45">
         <f>+Selección!D32</f>
         <v>2013</v>
       </c>
-      <c r="C27" s="57">
+      <c r="C27" s="46"/>
+      <c r="D27" s="42">
         <f>+VLOOKUP('Cuadro final'!B27,'Datos anuales'!$A$2:$B$1048576,2,0)</f>
         <v>3344</v>
       </c>
-      <c r="D27" s="58">
+      <c r="E27" s="46"/>
+      <c r="F27" s="47">
         <f>+VLOOKUP('Cuadro final'!B27,'Datos anuales'!$A$2:$C$1048576,3,0)</f>
         <v>5.9233449477351874</v>
       </c>
-      <c r="E27" s="59"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="4">
